--- a/ครั้งที่ 1/CEPP-22 CEPP Gantt Chart 1.xlsx
+++ b/ครั้งที่ 1/CEPP-22 CEPP Gantt Chart 1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178CA3E-B782-4BC7-AD19-1E2B0F774CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D518BB-ADEF-47B7-BCA3-5376583E6976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="10530" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -694,6 +694,36 @@
     <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -738,36 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1180,12 +1180,12 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1222,66 +1222,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="42"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="44"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1308,12 +1308,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1496,502 +1496,502 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="26">
         <v>5</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="26">
         <v>5</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="26">
         <v>1</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="26">
         <v>2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="26">
         <v>5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="26">
         <v>5</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="26">
         <v>2</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="26">
         <v>3</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="26">
         <v>5</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="46">
+      <c r="F8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="31">
         <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="26">
         <v>5</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="26">
         <v>3</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="26">
         <v>5</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="26">
         <v>3</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="26">
         <v>5</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="26">
         <v>4</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="26">
         <v>5</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="46">
+      <c r="F10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="31">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="26">
         <v>6</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="26">
         <v>2</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="26">
         <v>6</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="46">
+      <c r="F11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="26">
         <v>7</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="26">
         <v>2</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="26">
         <v>9</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="46">
+      <c r="F12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="26">
         <v>7</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="26">
         <v>3</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="26">
         <v>7</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="46">
+      <c r="F13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="31">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="26">
         <v>7</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="26">
         <v>2</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="26">
         <v>7</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="46">
+      <c r="F14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="27">
         <v>8</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="26">
         <v>4</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="26">
         <v>8</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="46">
+      <c r="F15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="31">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="28">
         <v>10</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="26">
         <v>3</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="46">
+      <c r="E16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="28">
         <v>10</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="26">
         <v>4</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="46">
+      <c r="E17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="26">
         <v>10</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="26">
         <v>2</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="46">
+      <c r="E18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="26">
         <v>12</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="26">
         <v>2</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="46">
+      <c r="E19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="26">
         <v>13</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="26">
         <v>2</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="46">
+      <c r="E20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="26">
         <v>13</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="26">
         <v>2</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="26">
         <v>5</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="26">
         <v>2</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="26">
         <v>13</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="26">
         <v>2</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="26">
         <v>5</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="46">
+      <c r="F22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="26">
         <v>15</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="26">
         <v>2</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="46">
+      <c r="E23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="26">
         <v>16</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="26">
         <v>2</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="46">
+      <c r="E24" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="26">
         <v>17</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="26">
         <v>2</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="46">
+      <c r="E25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="26">
         <v>17</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="26">
         <v>2</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="46">
+      <c r="E26" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="26">
         <v>15</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="26">
         <v>2</v>
       </c>
-      <c r="E27" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="46">
+      <c r="E27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="26">
         <v>15</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="26">
         <v>2</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="46">
+      <c r="E28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="29">
         <v>5</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="30">
         <v>16</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="30">
         <v>5</v>
       </c>
-      <c r="F29" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="47">
+      <c r="F29" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="32">
         <v>0</v>
       </c>
     </row>
